--- a/data/trans_orig/P53-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P53-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5573</v>
+        <v>6396</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02634488543157814</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08129766639094946</v>
+        <v>0.0933047387320214</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6468</v>
+        <v>6284</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01384510490542681</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04958940847012418</v>
+        <v>0.04817387570598428</v>
       </c>
     </row>
     <row r="5">
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4984</v>
+        <v>5110</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01448263517336994</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07271424895338666</v>
+        <v>0.07455060049366501</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>5042</v>
+        <v>5449</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007611101737492722</v>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03865516736025359</v>
+        <v>0.04177459598587518</v>
       </c>
     </row>
     <row r="6">
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01646997984188515</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08169144212246453</v>
+        <v>0.08166292635553296</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5065</v>
+        <v>5794</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007814463032241347</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03883215931756511</v>
+        <v>0.04442319188548618</v>
       </c>
     </row>
     <row r="7">
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6408</v>
+        <v>5746</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01859673884092973</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1035461741110733</v>
+        <v>0.09285034572599861</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5783</v>
+        <v>5198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008823540137135858</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04433992976872077</v>
+        <v>0.03985434003184431</v>
       </c>
     </row>
     <row r="8">
@@ -995,19 +995,19 @@
         <v>65749</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61123</v>
+        <v>60985</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>67676</v>
+        <v>67678</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9591724793950519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8916871295511443</v>
+        <v>0.8896746204054045</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9872788646454705</v>
+        <v>0.9873144931059058</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>58</v>
@@ -1016,7 +1016,7 @@
         <v>59717</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55354</v>
+        <v>54606</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>61887</v>
@@ -1025,7 +1025,7 @@
         <v>0.9649332813171851</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8944309153766277</v>
+        <v>0.8823501426398227</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1037,19 +1037,19 @@
         <v>125466</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>119498</v>
+        <v>119404</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>128515</v>
+        <v>128605</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9619057901877033</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9161479434555962</v>
+        <v>0.9154294163498039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.985281607270946</v>
+        <v>0.9859728791333918</v>
       </c>
     </row>
     <row r="9">
@@ -1141,19 +1141,19 @@
         <v>2966</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7997</v>
+        <v>8702</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04130852630475092</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01258832948099425</v>
+        <v>0.0125057737393197</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1113771322397952</v>
+        <v>0.1211957897169573</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5308</v>
+        <v>4168</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01162280354855184</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06002009774220917</v>
+        <v>0.04712100943368845</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1183,19 +1183,19 @@
         <v>3994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1060</v>
+        <v>1046</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9714</v>
+        <v>9167</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02492449468901373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006612923669796862</v>
+        <v>0.006525335108196285</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06062102863823413</v>
+        <v>0.05720541092971611</v>
       </c>
     </row>
     <row r="11">
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5291</v>
+        <v>4980</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01266053451404101</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07368529385952446</v>
+        <v>0.06935730958931914</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4788</v>
+        <v>5219</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01077788846629007</v>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05414015735900556</v>
+        <v>0.05900448629027262</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>6415</v>
+        <v>6502</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01162147164126144</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04003378771627005</v>
+        <v>0.04057228466356686</v>
       </c>
     </row>
     <row r="13">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7021</v>
+        <v>6554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02784810606682634</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09777357729192841</v>
+        <v>0.09128160041332241</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6879</v>
+        <v>7057</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.012478284891022</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04292572297690039</v>
+        <v>0.04404071507112147</v>
       </c>
     </row>
     <row r="14">
@@ -1393,19 +1393,19 @@
         <v>65929</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>60119</v>
+        <v>59563</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>69135</v>
+        <v>69107</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9181828331143818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8372591454326621</v>
+        <v>0.8295288891522624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9628316429601632</v>
+        <v>0.962444206072337</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -1414,7 +1414,7 @@
         <v>86462</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>82260</v>
+        <v>82396</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>88443</v>
@@ -1423,7 +1423,7 @@
         <v>0.9775993079851582</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9300901896658728</v>
+        <v>0.9316307301109846</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1435,19 +1435,19 @@
         <v>152392</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>145359</v>
+        <v>145493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>156408</v>
+        <v>156445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9509757487787028</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9070898038917866</v>
+        <v>0.9079221791312508</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.976038354540157</v>
+        <v>0.9762665288986679</v>
       </c>
     </row>
     <row r="15">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7914</v>
+        <v>7808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01928763048500679</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09454014484303203</v>
+        <v>0.09327626460466713</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7735</v>
+        <v>6475</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0144089353283372</v>
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0690323314469935</v>
+        <v>0.05778815284628348</v>
       </c>
     </row>
     <row r="17">
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5465</v>
+        <v>4347</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01086011388551987</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06529178872040675</v>
+        <v>0.05192911847055071</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4603</v>
+        <v>4540</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.008113110563605733</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04108212791841875</v>
+        <v>0.04052136141497525</v>
       </c>
     </row>
     <row r="18">
@@ -1668,7 +1668,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5192</v>
+        <v>4699</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01117090612805933</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06202474675813712</v>
+        <v>0.05613936277063513</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4300</v>
+        <v>4992</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03590567953732492</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.15172667623208</v>
+        <v>0.1761185008682896</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>6964</v>
+        <v>6188</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01742742474639916</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06215043120082846</v>
+        <v>0.05522402311588781</v>
       </c>
     </row>
     <row r="19">
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7280</v>
+        <v>7542</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02723925311652247</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08696586372044014</v>
+        <v>0.09010254428261802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4588</v>
+        <v>3862</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03163121638707448</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1618611987370382</v>
+        <v>0.1362427149098534</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>3</v>
@@ -1778,19 +1778,19 @@
         <v>3177</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9579</v>
+        <v>8321</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02835017495593499</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007528045205698954</v>
+        <v>0.007400777388906211</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08549141705093409</v>
+        <v>0.07426276181372349</v>
       </c>
     </row>
     <row r="20">
@@ -1807,19 +1807,19 @@
         <v>77969</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70797</v>
+        <v>70939</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>81877</v>
+        <v>81453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9314420963848915</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8457635242506506</v>
+        <v>0.8474620412796796</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9781295004611217</v>
+        <v>0.9730617265176694</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -1828,7 +1828,7 @@
         <v>26429</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21928</v>
+        <v>22492</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>28343</v>
@@ -1837,7 +1837,7 @@
         <v>0.9324631040756006</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.773661873456261</v>
+        <v>0.7935753311980466</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1849,19 +1849,19 @@
         <v>104398</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>96896</v>
+        <v>97705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108873</v>
+        <v>108606</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.931700354405723</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8647450739299432</v>
+        <v>0.8719717489352836</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9716366011671635</v>
+        <v>0.9692511834479545</v>
       </c>
     </row>
     <row r="21">
@@ -1953,19 +1953,19 @@
         <v>7857</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3817</v>
+        <v>3877</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14338</v>
+        <v>15104</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04980435957609253</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02419700518004014</v>
+        <v>0.02457510934716036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09088209484889759</v>
+        <v>0.0957400082537786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1987,19 +1987,19 @@
         <v>7857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3735</v>
+        <v>3809</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>14341</v>
+        <v>15116</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03152919551170736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01498760337667752</v>
+        <v>0.01528545442743692</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05754866232248702</v>
+        <v>0.0606571986935126</v>
       </c>
     </row>
     <row r="23">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7555</v>
+        <v>6349</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01405522719763482</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08261705196850617</v>
+        <v>0.06943713103466927</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7533</v>
+        <v>6468</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.005157411623907031</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0302296191363946</v>
+        <v>0.02595658606729718</v>
       </c>
     </row>
     <row r="24">
@@ -2079,19 +2079,19 @@
         <v>2969</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>718</v>
+        <v>869</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8129</v>
+        <v>8038</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01881785288056964</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004554111344626415</v>
+        <v>0.005508829525723308</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05152722142858696</v>
+        <v>0.05095057003088815</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2113,19 +2113,19 @@
         <v>2969</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>881</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8069</v>
+        <v>7947</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01191284794407499</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0</v>
+        <v>0.00353457940441116</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03237784061063004</v>
+        <v>0.03188907077323514</v>
       </c>
     </row>
     <row r="25">
@@ -2142,19 +2142,19 @@
         <v>6984</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2938</v>
+        <v>3129</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>13796</v>
+        <v>13879</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04426779748905448</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01862177340924147</v>
+        <v>0.01983289720518195</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08744802452482017</v>
+        <v>0.0879724376217544</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6621</v>
+        <v>6489</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01991396476082844</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0724043842317471</v>
+        <v>0.07095923016607127</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2184,19 +2184,19 @@
         <v>8805</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4220</v>
+        <v>4537</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15862</v>
+        <v>15262</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03533142540249179</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01693476892131483</v>
+        <v>0.01820412326087173</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06365053359356919</v>
+        <v>0.06124393748084387</v>
       </c>
     </row>
     <row r="26">
@@ -2213,19 +2213,19 @@
         <v>139950</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131493</v>
+        <v>131032</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>146825</v>
+        <v>146615</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8871099900542834</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8334997236978972</v>
+        <v>0.8305758277778746</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9306854978262121</v>
+        <v>0.9293524416590109</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>88</v>
@@ -2234,19 +2234,19 @@
         <v>88336</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>82534</v>
+        <v>82600</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>90629</v>
+        <v>90643</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9660308080415367</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9025800870266516</v>
+        <v>0.9033054765324203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9911141301855804</v>
+        <v>0.9912659953251143</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>223</v>
@@ -2255,19 +2255,19 @@
         <v>228286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>217725</v>
+        <v>217812</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>235852</v>
+        <v>235953</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9160691195178188</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8736887724057995</v>
+        <v>0.8740359358542427</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9464272812900224</v>
+        <v>0.9468341622183429</v>
       </c>
     </row>
     <row r="27">
@@ -2359,19 +2359,19 @@
         <v>3001</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8040</v>
+        <v>8041</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07356399640445917</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02260949787713358</v>
+        <v>0.02249717043967472</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1970886462073328</v>
+        <v>0.1970920733257452</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>5362</v>
+        <v>4817</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01531172840816105</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08613506899949437</v>
+        <v>0.07738161101096037</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -2401,19 +2401,19 @@
         <v>3954</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>975</v>
+        <v>965</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>9877</v>
+        <v>9086</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03837282065486317</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009463686235953093</v>
+        <v>0.009364326962044266</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09584965897841652</v>
+        <v>0.08817279394706663</v>
       </c>
     </row>
     <row r="29">
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>5951</v>
+        <v>5852</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04642381037207096</v>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1458627766161999</v>
+        <v>0.1434463473970848</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5035</v>
+        <v>4041</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01568292500301017</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08087402410263282</v>
+        <v>0.06491587668166002</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2566,19 +2566,19 @@
         <v>2870</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8150</v>
+        <v>7844</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02785272401042834</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008777214677183133</v>
+        <v>0.008744599012200345</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0790858369670432</v>
+        <v>0.07611412588624583</v>
       </c>
     </row>
     <row r="32">
@@ -2595,19 +2595,19 @@
         <v>35901</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>30711</v>
+        <v>30547</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38932</v>
+        <v>38886</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8800121932234699</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7528054304822152</v>
+        <v>0.7487648764841851</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9543016918585147</v>
+        <v>0.9531770215873949</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>54</v>
@@ -2616,7 +2616,7 @@
         <v>60325</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>55313</v>
+        <v>55482</v>
       </c>
       <c r="M32" s="5" t="n">
         <v>62255</v>
@@ -2625,7 +2625,7 @@
         <v>0.9690053465888288</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8884942689379262</v>
+        <v>0.8912012910842314</v>
       </c>
       <c r="P32" s="6" t="n">
         <v>1</v>
@@ -2637,19 +2637,19 @@
         <v>96226</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>89759</v>
+        <v>89924</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100133</v>
+        <v>100127</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9337744553347085</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8710201579084725</v>
+        <v>0.8726165249297576</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9716819830233409</v>
+        <v>0.9716291014099415</v>
       </c>
     </row>
     <row r="33">
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4000</v>
+        <v>4208</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1909774789654885</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.766622659811015</v>
+        <v>0.8064335762810106</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6589</v>
+        <v>6185</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03036521372834325</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1123072998845717</v>
+        <v>0.1054261788838673</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2783,19 +2783,19 @@
         <v>2778</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7447</v>
+        <v>7326</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04348356333329405</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0119175672244795</v>
+        <v>0.01181359051282375</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1165701587751232</v>
+        <v>0.114673036281532</v>
       </c>
     </row>
     <row r="35">
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>6525</v>
+        <v>5080</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.0208612773630502</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1112198417794434</v>
+        <v>0.08659054049367794</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1</v>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>5552</v>
+        <v>6028</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01915738800410075</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.08691375912266938</v>
+        <v>0.09436473371232626</v>
       </c>
     </row>
     <row r="38">
@@ -2969,7 +2969,7 @@
         <v>4221</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>1218</v>
+        <v>1010</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>5218</v>
@@ -2978,7 +2978,7 @@
         <v>0.8090225210345114</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2333773401889818</v>
+        <v>0.1935664237189898</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -2990,19 +2990,19 @@
         <v>55660</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>50028</v>
+        <v>50801</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>57898</v>
+        <v>57903</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9487735089086066</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8527805390935264</v>
+        <v>0.8659468391881625</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9869306285529797</v>
+        <v>0.9870168661284956</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>58</v>
@@ -3011,19 +3011,19 @@
         <v>59881</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>54699</v>
+        <v>54161</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>62863</v>
+        <v>62860</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9373590486626052</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8562321014415284</v>
+        <v>0.8478145482354646</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9840309196319714</v>
+        <v>0.9839859006701593</v>
       </c>
     </row>
     <row r="39">
@@ -3115,19 +3115,19 @@
         <v>18241</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>10807</v>
+        <v>10944</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>28791</v>
+        <v>28383</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04263634958417344</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02526069039352937</v>
+        <v>0.02557923136816263</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06729423100999141</v>
+        <v>0.06634166429514061</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -3136,19 +3136,19 @@
         <v>3763</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>960</v>
+        <v>1003</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9340</v>
+        <v>9355</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.009622083475346505</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.00245621816601647</v>
+        <v>0.002564898452185522</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02388568651877737</v>
+        <v>0.02392415679161994</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>22</v>
@@ -3157,19 +3157,19 @@
         <v>22004</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>14391</v>
+        <v>13794</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>32192</v>
+        <v>32306</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02687103572494355</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01757402682049274</v>
+        <v>0.01684525971861275</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03931233751170835</v>
+        <v>0.03945248900228519</v>
       </c>
     </row>
     <row r="41">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6527</v>
+        <v>6485</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004445257510648113</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01525644763463351</v>
+        <v>0.01515869927901302</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1</v>
@@ -3210,7 +3210,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>6465</v>
+        <v>7200</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003286756448569371</v>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01653215873805865</v>
+        <v>0.01841190937716718</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3</v>
@@ -3228,19 +3228,19 @@
         <v>3187</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>8500</v>
+        <v>8257</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003892038099690518</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001111742739492658</v>
+        <v>0.001109908778836072</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01038014694765667</v>
+        <v>0.01008284666779719</v>
       </c>
     </row>
     <row r="42">
@@ -3257,19 +3257,19 @@
         <v>4813</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1819</v>
+        <v>1889</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11390</v>
+        <v>10354</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.01124940519024679</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.004250748284455069</v>
+        <v>0.004414756723725605</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02662260305944241</v>
+        <v>0.02420168198313975</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -3278,19 +3278,19 @@
         <v>2990</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7910</v>
+        <v>7778</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.007646811451527528</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.00241162860233525</v>
+        <v>0.002428629393244282</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02022953677498817</v>
+        <v>0.01989199192686622</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>8</v>
@@ -3299,19 +3299,19 @@
         <v>7803</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3826</v>
+        <v>3866</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>15377</v>
+        <v>15991</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.00952905736209924</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.004671808903663253</v>
+        <v>0.004721253113283992</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.01877864651875359</v>
+        <v>0.01952779803662145</v>
       </c>
     </row>
     <row r="43">
@@ -3328,19 +3328,19 @@
         <v>13157</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>7429</v>
+        <v>7331</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>21909</v>
+        <v>22538</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03075341540850364</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01736390157547432</v>
+        <v>0.01713517969702561</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05120866548473287</v>
+        <v>0.05267875915594014</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>6</v>
@@ -3349,19 +3349,19 @@
         <v>6069</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2234</v>
+        <v>2160</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>11546</v>
+        <v>12952</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01551920262511947</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.005712039391723565</v>
+        <v>0.005524766305768996</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02952759829169764</v>
+        <v>0.03312314189413363</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>19</v>
@@ -3370,19 +3370,19 @@
         <v>19226</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>11526</v>
+        <v>11991</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>29892</v>
+        <v>29101</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.02347861653408222</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01407572371918719</v>
+        <v>0.01464336585594733</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03650461006676435</v>
+        <v>0.0355384284875187</v>
       </c>
     </row>
     <row r="44">
@@ -3399,19 +3399,19 @@
         <v>389721</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>376101</v>
+        <v>377527</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>399247</v>
+        <v>400399</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9109155723064281</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.8790814389320516</v>
+        <v>0.8824142225818374</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9331830465911334</v>
+        <v>0.9358754007330842</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>364</v>
@@ -3420,19 +3420,19 @@
         <v>376928</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>368454</v>
+        <v>367354</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>383074</v>
+        <v>383162</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9639251459994371</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9422542533286067</v>
+        <v>0.9394391592206399</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9796410177525361</v>
+        <v>0.9798663696971841</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>736</v>
@@ -3441,19 +3441,19 @@
         <v>766649</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>751194</v>
+        <v>750751</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>778651</v>
+        <v>779012</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9362292522791845</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9173556518273327</v>
+        <v>0.9168150397266499</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9508859577311636</v>
+        <v>0.9513269449957021</v>
       </c>
     </row>
     <row r="45">
@@ -3787,19 +3787,19 @@
         <v>6727</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2803</v>
+        <v>2828</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12448</v>
+        <v>13375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0370710541404015</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01544460349652196</v>
+        <v>0.01558535447804008</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06859913395731333</v>
+        <v>0.07370954787228702</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -3808,19 +3808,19 @@
         <v>9398</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4156</v>
+        <v>4312</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18255</v>
+        <v>19584</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06149832295492143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02719772504451044</v>
+        <v>0.02821701141757028</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1194564758007002</v>
+        <v>0.1281478026332398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -3829,19 +3829,19 @@
         <v>16125</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9591</v>
+        <v>9099</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25661</v>
+        <v>26262</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04823837641332954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02869089760678637</v>
+        <v>0.02721847957650993</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07676539642928241</v>
+        <v>0.07856359230830888</v>
       </c>
     </row>
     <row r="5">
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7486</v>
+        <v>6124</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01078910406751305</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0412529035884477</v>
+        <v>0.03375024509466363</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7442</v>
+        <v>7218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01393531121125073</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04869580962233105</v>
+        <v>0.04723099730534269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -3900,19 +3900,19 @@
         <v>4087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>994</v>
+        <v>1114</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10601</v>
+        <v>10458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0122274437107327</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002972600025041048</v>
+        <v>0.003332699720464381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03171202720075639</v>
+        <v>0.03128445359031767</v>
       </c>
     </row>
     <row r="6">
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4714</v>
+        <v>4781</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005163801792077869</v>
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02597829087687567</v>
+        <v>0.02634709717847629</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5170</v>
+        <v>4733</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002803086019736614</v>
@@ -3975,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.015464998959348</v>
+        <v>0.01415762500649398</v>
       </c>
     </row>
     <row r="7">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4314</v>
+        <v>4990</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00543559163268696</v>
@@ -4004,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02377612985114786</v>
+        <v>0.02749784779294796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -4016,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4563</v>
+        <v>3847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005840732675937298</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02985789823571426</v>
+        <v>0.02517543634865619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6845</v>
+        <v>6736</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005620808434054351</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0204772340598523</v>
+        <v>0.0201503793563026</v>
       </c>
     </row>
     <row r="8">
@@ -4063,19 +4063,19 @@
         <v>170850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>163048</v>
+        <v>163836</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176029</v>
+        <v>175751</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9415404483673206</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8985466539950884</v>
+        <v>0.9028880419011103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9700789323962636</v>
+        <v>0.9685498747028986</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>124</v>
@@ -4084,19 +4084,19 @@
         <v>140401</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>131004</v>
+        <v>130789</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>146320</v>
+        <v>146094</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9187256331578906</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8572392299125359</v>
+        <v>0.8558342364367084</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9574574492200887</v>
+        <v>0.9559809189184348</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>284</v>
@@ -4105,19 +4105,19 @@
         <v>311251</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>300955</v>
+        <v>299510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>319300</v>
+        <v>319410</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9311102854221468</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9003113480413193</v>
+        <v>0.8959889615443933</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9551886730554676</v>
+        <v>0.955517890827059</v>
       </c>
     </row>
     <row r="9">
@@ -4209,19 +4209,19 @@
         <v>15593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8965</v>
+        <v>8272</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25152</v>
+        <v>25312</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09039510291813943</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05197391285007819</v>
+        <v>0.04795365616419928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1458077725186639</v>
+        <v>0.146736070024482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4233,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7804</v>
+        <v>6451</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01180854591832748</v>
@@ -4242,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04724159135229767</v>
+        <v>0.03904883351083923</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -4251,19 +4251,19 @@
         <v>17544</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9950</v>
+        <v>10824</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>27412</v>
+        <v>27533</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05195147860342388</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02946388378524182</v>
+        <v>0.03205373707468114</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08117288488202191</v>
+        <v>0.08153337093514669</v>
       </c>
     </row>
     <row r="11">
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4849</v>
+        <v>5148</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005558539798155317</v>
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0281120857678092</v>
+        <v>0.02984491061706238</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -4364,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>4812</v>
+        <v>5561</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.00283936715722655</v>
@@ -4373,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01424895127465758</v>
+        <v>0.0164661286548412</v>
       </c>
     </row>
     <row r="13">
@@ -4393,7 +4393,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6308</v>
+        <v>5443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006032895976396105</v>
@@ -4402,7 +4402,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03656696247704658</v>
+        <v>0.03155482546328928</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -4414,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5771</v>
+        <v>5905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00628428879909355</v>
@@ -4423,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03493416319889026</v>
+        <v>0.03574800496471686</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8427</v>
+        <v>8149</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006155874404261568</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0249541703274487</v>
+        <v>0.02413086050819601</v>
       </c>
     </row>
     <row r="14">
@@ -4461,19 +4461,19 @@
         <v>154906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>145158</v>
+        <v>144794</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162074</v>
+        <v>162335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8980134613073092</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8415080801812294</v>
+        <v>0.8393950193701833</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9395691558424679</v>
+        <v>0.9410811868200897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>147</v>
@@ -4482,19 +4482,19 @@
         <v>162207</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>157068</v>
+        <v>156387</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164306</v>
+        <v>164293</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9819071652825789</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9508004639484756</v>
+        <v>0.9466774065394565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.994612400615263</v>
+        <v>0.994533914888618</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>285</v>
@@ -4503,19 +4503,19 @@
         <v>317113</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>306510</v>
+        <v>307084</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>325325</v>
+        <v>324463</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.939053279835088</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9076548425095107</v>
+        <v>0.909356194967852</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9633713231701255</v>
+        <v>0.9608197640466124</v>
       </c>
     </row>
     <row r="15">
@@ -4607,19 +4607,19 @@
         <v>16833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10302</v>
+        <v>9989</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26818</v>
+        <v>26273</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06209966020831215</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03800698081774768</v>
+        <v>0.03685150872273847</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09893890414040971</v>
+        <v>0.09692778100720453</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4628,19 +4628,19 @@
         <v>8276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4024</v>
+        <v>3971</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16306</v>
+        <v>14696</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08481008304770973</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04123550232537778</v>
+        <v>0.04070062604184124</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1671098451874437</v>
+        <v>0.1506140121959532</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -4649,19 +4649,19 @@
         <v>25108</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>16404</v>
+        <v>17781</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36359</v>
+        <v>35393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06811108181392597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04449809737259415</v>
+        <v>0.04823618792392332</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09863061397384379</v>
+        <v>0.09601052959456957</v>
       </c>
     </row>
     <row r="17">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6208</v>
+        <v>6268</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003799119652301005</v>
@@ -4690,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02290364820995348</v>
+        <v>0.02312371040685762</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6175</v>
+        <v>5142</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0027934972505668</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01675109130454366</v>
+        <v>0.01394745376890466</v>
       </c>
     </row>
     <row r="18">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5586</v>
+        <v>4739</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.003530603323531406</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0206094485394299</v>
+        <v>0.0174827276634198</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -4778,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5236</v>
+        <v>4891</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.002596056871005221</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01420468899595023</v>
+        <v>0.01326762571534637</v>
       </c>
     </row>
     <row r="19">
@@ -4804,19 +4804,19 @@
         <v>4175</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11536</v>
+        <v>12476</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01540113584280523</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003631625830074941</v>
+        <v>0.003653515238842626</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04255815531846352</v>
+        <v>0.04602698322168242</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -4838,19 +4838,19 @@
         <v>4175</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11866</v>
+        <v>12627</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01132447371233084</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002659097850994882</v>
+        <v>0.002652887310129228</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03218993698524046</v>
+        <v>0.03425354082369091</v>
       </c>
     </row>
     <row r="20">
@@ -4867,19 +4867,19 @@
         <v>248063</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>237364</v>
+        <v>236985</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>256357</v>
+        <v>256376</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9151694809730502</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8756980149150304</v>
+        <v>0.8742990523917291</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9457675534598955</v>
+        <v>0.9458376479449184</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -4888,19 +4888,19 @@
         <v>89301</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81271</v>
+        <v>82881</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>93553</v>
+        <v>93606</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9151899169522902</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8328901548125563</v>
+        <v>0.8493859878040468</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9587644976746222</v>
+        <v>0.9592993739581588</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>322</v>
@@ -4909,19 +4909,19 @@
         <v>337365</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>324816</v>
+        <v>324664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>346856</v>
+        <v>346567</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9151748903521711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8811330130594639</v>
+        <v>0.8807214775237352</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9409233511994494</v>
+        <v>0.9401376962935263</v>
       </c>
     </row>
     <row r="21">
@@ -5013,19 +5013,19 @@
         <v>24434</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15276</v>
+        <v>16023</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37114</v>
+        <v>38007</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05733651704047026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03584515427243153</v>
+        <v>0.03759924377631534</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08709027938165652</v>
+        <v>0.08918712581397727</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>18</v>
@@ -5034,19 +5034,19 @@
         <v>19462</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12016</v>
+        <v>11763</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30669</v>
+        <v>31145</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07222242250153255</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04459125068657975</v>
+        <v>0.04365294446183303</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.113809625338394</v>
+        <v>0.1155774639500602</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>39</v>
@@ -5055,19 +5055,19 @@
         <v>43896</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32223</v>
+        <v>30727</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>60558</v>
+        <v>58917</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06310302763956238</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04632169210391526</v>
+        <v>0.04417151011240911</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08705524985011896</v>
+        <v>0.08469708567130212</v>
       </c>
     </row>
     <row r="23">
@@ -5087,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6187</v>
+        <v>6997</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00461658790140333</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01451891612426315</v>
+        <v>0.01641965054187059</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8057</v>
+        <v>6960</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.008580183546528935</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02989856626732971</v>
+        <v>0.0258281558800001</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -5126,19 +5126,19 @@
         <v>4279</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10427</v>
+        <v>10244</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.006152007856737448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.001631589486615222</v>
+        <v>0.001633050253068102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01499008272715424</v>
+        <v>0.01472605680474844</v>
       </c>
     </row>
     <row r="24">
@@ -5155,19 +5155,19 @@
         <v>2739</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8228</v>
+        <v>7260</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006427065519692916</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001752241220511509</v>
+        <v>0.00172958640604473</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0193073068412171</v>
+        <v>0.01703514859980271</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6942</v>
+        <v>7425</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.008038161919697032</v>
@@ -5188,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02576124860149678</v>
+        <v>0.02755287611140904</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -5197,19 +5197,19 @@
         <v>4905</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1776</v>
+        <v>1634</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>10702</v>
+        <v>10741</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.00705117296757939</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002552968404682341</v>
+        <v>0.002349473989650236</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01538465714839962</v>
+        <v>0.01544098996388331</v>
       </c>
     </row>
     <row r="25">
@@ -5226,19 +5226,19 @@
         <v>3184</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1034</v>
+        <v>1046</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7808</v>
+        <v>8510</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007472291386078399</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00242556214177135</v>
+        <v>0.002454212333819611</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01832295266391075</v>
+        <v>0.01997041943624187</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -5260,19 +5260,19 @@
         <v>3184</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8493</v>
+        <v>8565</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004577670861311818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.001480055369854963</v>
+        <v>0.001491466967448245</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01220887244577397</v>
+        <v>0.01231332235292544</v>
       </c>
     </row>
     <row r="26">
@@ -5289,19 +5289,19 @@
         <v>393829</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>380248</v>
+        <v>379250</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>404791</v>
+        <v>403848</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9241475381523551</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.892278059497961</v>
+        <v>0.8899356671026458</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9498693287972023</v>
+        <v>0.9476565205736138</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>231</v>
@@ -5310,19 +5310,19 @@
         <v>245532</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>233388</v>
+        <v>233996</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>253941</v>
+        <v>254198</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9111592320322415</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8660932567156324</v>
+        <v>0.8683515698288617</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9423634699852771</v>
+        <v>0.9433181959446871</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>608</v>
@@ -5331,19 +5331,19 @@
         <v>639361</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>621421</v>
+        <v>623423</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>653060</v>
+        <v>654187</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.919116120674809</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8933256075995216</v>
+        <v>0.8962036932428434</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9388092234365556</v>
+        <v>0.9404298048732133</v>
       </c>
     </row>
     <row r="27">
@@ -5435,19 +5435,19 @@
         <v>8195</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4018</v>
+        <v>3833</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>15869</v>
+        <v>14672</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05658278420039873</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02774252394816705</v>
+        <v>0.02646997651896431</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1095773834845884</v>
+        <v>0.1013119521774088</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -5456,19 +5456,19 @@
         <v>16961</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10253</v>
+        <v>10212</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>26972</v>
+        <v>26663</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09120544004332563</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05513465668117715</v>
+        <v>0.0549111609611407</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.145035686922188</v>
+        <v>0.1433701740960753</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>24</v>
@@ -5477,19 +5477,19 @@
         <v>25156</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>16646</v>
+        <v>16840</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>35955</v>
+        <v>36047</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07604739654241632</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05032144539447558</v>
+        <v>0.05090806000544696</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1086944716336304</v>
+        <v>0.1089717925913131</v>
       </c>
     </row>
     <row r="29">
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5020</v>
+        <v>4866</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.005209318019881646</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02699433676644497</v>
+        <v>0.02616382881780799</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1</v>
@@ -5543,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6449</v>
+        <v>4896</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.002928641762298472</v>
@@ -5552,7 +5552,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01949513768490277</v>
+        <v>0.01480194272730688</v>
       </c>
     </row>
     <row r="30">
@@ -5572,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5029</v>
+        <v>6751</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006371345706117409</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.03472673227509536</v>
+        <v>0.04661368490496632</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2</v>
@@ -5593,7 +5593,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>8409</v>
+        <v>8515</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.01304069439747536</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.04521797700638963</v>
+        <v>0.0457845462265945</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3</v>
@@ -5611,19 +5611,19 @@
         <v>3348</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9074</v>
+        <v>9528</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.01012080638989523</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.002748740318477766</v>
+        <v>0.00280462842752268</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02743102383829672</v>
+        <v>0.02880343131832438</v>
       </c>
     </row>
     <row r="31">
@@ -5640,19 +5640,19 @@
         <v>5511</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1147</v>
+        <v>2000</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13957</v>
+        <v>14108</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03805134296058865</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.007922678851726588</v>
+        <v>0.01380820772172202</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09637276851323286</v>
+        <v>0.09741318384133449</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -5664,7 +5664,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6736</v>
+        <v>6830</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01035511887798934</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03622259094311173</v>
+        <v>0.03672703546073629</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -5682,19 +5682,19 @@
         <v>7436</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2966</v>
+        <v>3090</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>16114</v>
+        <v>16943</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02248072158621537</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.008967047349885925</v>
+        <v>0.009342384314262323</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04871393499900413</v>
+        <v>0.0512179293085249</v>
       </c>
     </row>
     <row r="32">
@@ -5711,19 +5711,19 @@
         <v>130196</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>120504</v>
+        <v>121171</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>136361</v>
+        <v>136894</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8989945271328952</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8320707783996093</v>
+        <v>0.8366809851215923</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9415639779241426</v>
+        <v>0.9452457777389591</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>153</v>
@@ -5732,19 +5732,19 @@
         <v>163689</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>153213</v>
+        <v>153340</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>172035</v>
+        <v>171676</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.880189428661328</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8238571742937528</v>
+        <v>0.8245423383713558</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.9250704728199479</v>
+        <v>0.9231403323358993</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>278</v>
@@ -5753,19 +5753,19 @@
         <v>293884</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>281593</v>
+        <v>280291</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>304469</v>
+        <v>304085</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8884224337191746</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.851267872244896</v>
+        <v>0.8473299486015415</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9204209167135812</v>
+        <v>0.9192617751266065</v>
       </c>
     </row>
     <row r="33">
@@ -5857,19 +5857,19 @@
         <v>8576</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3917</v>
+        <v>3905</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14857</v>
+        <v>14379</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2813436653348069</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1285053943476251</v>
+        <v>0.1281026050029906</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.48741029525603</v>
+        <v>0.4717118771313189</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>21</v>
@@ -5878,19 +5878,19 @@
         <v>22482</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14921</v>
+        <v>14251</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>32333</v>
+        <v>33241</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1261320814484014</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0837102726196277</v>
+        <v>0.07995074547572399</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1813962798858841</v>
+        <v>0.1864905595026317</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>29</v>
@@ -5899,19 +5899,19 @@
         <v>31058</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20990</v>
+        <v>21565</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>43470</v>
+        <v>44094</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1487992543181342</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1005627519647962</v>
+        <v>0.1033178856104073</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2082633639689144</v>
+        <v>0.2112539581251033</v>
       </c>
     </row>
     <row r="35">
@@ -5931,7 +5931,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>5773</v>
+        <v>5947</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03711967890093452</v>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1893855461579286</v>
+        <v>0.195103023570215</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>5123</v>
+        <v>5161</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005746871875959569</v>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02873979139895658</v>
+        <v>0.02895637044409496</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>2</v>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7368</v>
+        <v>7548</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01032857140145587</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03530106605455276</v>
+        <v>0.0361636073205942</v>
       </c>
     </row>
     <row r="36">
@@ -6015,7 +6015,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7021</v>
+        <v>5882</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.006600389004167458</v>
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.03938803531832679</v>
+        <v>0.03300043548608313</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5011</v>
+        <v>5843</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.005636465082906249</v>
@@ -6045,7 +6045,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02400776186325515</v>
+        <v>0.02799486156246591</v>
       </c>
     </row>
     <row r="37">
@@ -6075,19 +6075,19 @@
         <v>3216</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>983</v>
+        <v>962</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>9422</v>
+        <v>8687</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01804009610515873</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.005513026769040157</v>
+        <v>0.005397625876009699</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05285861372651415</v>
+        <v>0.04873513883513701</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>3</v>
@@ -6096,19 +6096,19 @@
         <v>3216</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>965</v>
+        <v>977</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9236</v>
+        <v>9656</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01540551196676414</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.004623244742739317</v>
+        <v>0.004679183323752978</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04425055472055454</v>
+        <v>0.04625964165349471</v>
       </c>
     </row>
     <row r="38">
@@ -6125,19 +6125,19 @@
         <v>20775</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>14527</v>
+        <v>14729</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25663</v>
+        <v>25475</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.6815366557642586</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.4765622567301478</v>
+        <v>0.4831887657423071</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8419066335875168</v>
+        <v>0.835739626683326</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>144</v>
@@ -6146,19 +6146,19 @@
         <v>150345</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>139084</v>
+        <v>138712</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>159108</v>
+        <v>159340</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8434805615663128</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.780307861806959</v>
+        <v>0.778221121083611</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8926440340446464</v>
+        <v>0.8939485151049976</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>164</v>
@@ -6167,19 +6167,19 @@
         <v>171119</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>157433</v>
+        <v>158434</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>181616</v>
+        <v>181770</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.8198301972307396</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7542588461259127</v>
+        <v>0.7590556887064744</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.8701187868899022</v>
+        <v>0.8708564187721803</v>
       </c>
     </row>
     <row r="39">
@@ -6271,19 +6271,19 @@
         <v>80357</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>64898</v>
+        <v>61612</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>101978</v>
+        <v>98556</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06551884273136085</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05291398600658467</v>
+        <v>0.05023520865969034</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.08314767274659181</v>
+        <v>0.08035732838446691</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>73</v>
@@ -6292,19 +6292,19 @@
         <v>78530</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>61631</v>
+        <v>62073</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>97318</v>
+        <v>97102</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.07484189005075607</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05873616873962892</v>
+        <v>0.05915821045319674</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09274721030631861</v>
+        <v>0.09254150593545483</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>148</v>
@@ -6313,19 +6313,19 @@
         <v>158887</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>135246</v>
+        <v>134531</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>185837</v>
+        <v>186268</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06981741130189088</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.05942907399238039</v>
+        <v>0.05911493386315557</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08165958823344945</v>
+        <v>0.08184902099910422</v>
       </c>
     </row>
     <row r="41">
@@ -6342,19 +6342,19 @@
         <v>6086</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2899</v>
+        <v>2079</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11515</v>
+        <v>13170</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.004962538580359825</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002363995064791723</v>
+        <v>0.001695122846649928</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.009388404642668871</v>
+        <v>0.01073829887625942</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -6363,19 +6363,19 @@
         <v>6435</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2294</v>
+        <v>2148</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>13654</v>
+        <v>14003</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.006132635549884601</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.00218645629510903</v>
+        <v>0.002047097234241724</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0130126551262808</v>
+        <v>0.01334570653006986</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>12</v>
@@ -6384,19 +6384,19 @@
         <v>12521</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6370</v>
+        <v>7123</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>20934</v>
+        <v>21673</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.005502034078490355</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002799017689907269</v>
+        <v>0.003130070755097602</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.009198881614466199</v>
+        <v>0.009523555196166577</v>
       </c>
     </row>
     <row r="42">
@@ -6413,19 +6413,19 @@
         <v>6514</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2707</v>
+        <v>2768</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>12039</v>
+        <v>12878</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.00531156100883426</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.002206959507577874</v>
+        <v>0.002257247738734132</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.009815606715071376</v>
+        <v>0.01049995915500675</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>5</v>
@@ -6434,19 +6434,19 @@
         <v>5768</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2164</v>
+        <v>2131</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>12623</v>
+        <v>12874</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.005496829053373645</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.002062008064830029</v>
+        <v>0.002030459155473767</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01202983518508242</v>
+        <v>0.01226983504831757</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>12</v>
@@ -6455,19 +6455,19 @@
         <v>12282</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>6087</v>
+        <v>6953</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>21086</v>
+        <v>21688</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.005396982370122837</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.002674765807482368</v>
+        <v>0.003055042328724405</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009265722337052354</v>
+        <v>0.009529867987875345</v>
       </c>
     </row>
     <row r="43">
@@ -6484,19 +6484,19 @@
         <v>14897</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8048</v>
+        <v>7478</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>27029</v>
+        <v>26676</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01214593269689875</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.006562201081806583</v>
+        <v>0.006096958767423942</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02203811504310921</v>
+        <v>0.02175013808866134</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>7</v>
@@ -6505,19 +6505,19 @@
         <v>7072</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>2879</v>
+        <v>2881</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>14269</v>
+        <v>13271</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.006739853585557365</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.00274335546861476</v>
+        <v>0.002746070841128215</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.01359845776895319</v>
+        <v>0.01264766081609738</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>19</v>
@@ -6526,19 +6526,19 @@
         <v>21969</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>12924</v>
+        <v>13438</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>35258</v>
+        <v>33949</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.009653356936882291</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.005679133457792871</v>
+        <v>0.005904977874457588</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.01549299151359357</v>
+        <v>0.01491787993202197</v>
       </c>
     </row>
     <row r="44">
@@ -6555,19 +6555,19 @@
         <v>1118618</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1096109</v>
+        <v>1095885</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1138239</v>
+        <v>1137873</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9120611249825463</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.893708119603464</v>
+        <v>0.8935253465813056</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9280589205333239</v>
+        <v>0.9277600359724718</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>881</v>
@@ -6576,19 +6576,19 @@
         <v>951474</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>931361</v>
+        <v>931972</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>970684</v>
+        <v>970375</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9067887917604284</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.8876203706467607</v>
+        <v>0.8882035656843057</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9250968864085016</v>
+        <v>0.9248022748385897</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1941</v>
@@ -6597,19 +6597,19 @@
         <v>2070092</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2040158</v>
+        <v>2040275</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2097890</v>
+        <v>2098546</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9096302153126137</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.8964768290912868</v>
+        <v>0.8965282720422557</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9218453116068968</v>
+        <v>0.9221332983026088</v>
       </c>
     </row>
     <row r="45">
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5643</v>
+        <v>5701</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.007197236781272216</v>
@@ -6955,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03986334864980882</v>
+        <v>0.04027607426623084</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5380</v>
+        <v>4930</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007212071177955478</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03955271416594829</v>
+        <v>0.03624317123933307</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -6988,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6079</v>
+        <v>7057</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00720450609308258</v>
@@ -6997,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02190024374258877</v>
+        <v>0.02542248601687588</v>
       </c>
     </row>
     <row r="5">
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5801</v>
+        <v>6334</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.007243790725083209</v>
@@ -7073,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04098241488020399</v>
+        <v>0.04474362492752776</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5321</v>
+        <v>5404</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003694109899231236</v>
@@ -7107,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01916717906682894</v>
+        <v>0.01946815075565236</v>
       </c>
     </row>
     <row r="7">
@@ -7124,19 +7124,19 @@
         <v>3929</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10855</v>
+        <v>13112</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02775646004568383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006969386232068328</v>
+        <v>0.006958712518452196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07668194798108931</v>
+        <v>0.09262533132719593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -7145,19 +7145,19 @@
         <v>3220</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9566</v>
+        <v>9281</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02366955320796807</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.006879504592855959</v>
+        <v>0.006796921305608421</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07032574279741448</v>
+        <v>0.06823163521650218</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -7166,19 +7166,19 @@
         <v>7149</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2961</v>
+        <v>2811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15327</v>
+        <v>15432</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02575374967076251</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01066593433831704</v>
+        <v>0.01012531698302604</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05521483298354462</v>
+        <v>0.05559494796564411</v>
       </c>
     </row>
     <row r="8">
@@ -7195,19 +7195,19 @@
         <v>135586</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128244</v>
+        <v>127279</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139501</v>
+        <v>139523</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9578025124479608</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9059379320802944</v>
+        <v>0.8991257169396156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.985464137756825</v>
+        <v>0.9856148022114454</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>130</v>
@@ -7216,19 +7216,19 @@
         <v>131824</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>125421</v>
+        <v>125246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>134962</v>
+        <v>134803</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9691183756140764</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9220458412738312</v>
+        <v>0.9207592962705728</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9921888046988389</v>
+        <v>0.991016322586768</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>252</v>
@@ -7237,19 +7237,19 @@
         <v>267410</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>258600</v>
+        <v>258895</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>272528</v>
+        <v>272521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9633476343369237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9316116622955698</v>
+        <v>0.9326725896873117</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9817865009930054</v>
+        <v>0.9817615903937686</v>
       </c>
     </row>
     <row r="9">
@@ -7357,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7680</v>
+        <v>7511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01343639530803062</v>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04813800783817487</v>
+        <v>0.04707849455697184</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7525</v>
+        <v>7386</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007355534053405431</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0258206689261377</v>
+        <v>0.02534617582138041</v>
       </c>
     </row>
     <row r="11">
@@ -7420,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>5255</v>
+        <v>5274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006597750572684936</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03293812095413923</v>
+        <v>0.03306156234302902</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5324</v>
+        <v>6009</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003611830249163181</v>
@@ -7450,7 +7450,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01826884090244697</v>
+        <v>0.02062022358937546</v>
       </c>
     </row>
     <row r="12">
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5427</v>
+        <v>6118</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.007170763512570982</v>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04114768980292678</v>
+        <v>0.04639190449338241</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>0</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3847</v>
+        <v>4730</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.003245246735455273</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01320207547861364</v>
+        <v>0.01623022637272725</v>
       </c>
     </row>
     <row r="13">
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3679</v>
+        <v>3709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006809949627417604</v>
@@ -7542,7 +7542,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02789669191976642</v>
+        <v>0.02812033136859421</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -7551,19 +7551,19 @@
         <v>3103</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8401</v>
+        <v>9270</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01945058654437804</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006353718056018929</v>
+        <v>0.00639147500840479</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05266177764273611</v>
+        <v>0.05810853669929253</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -7572,19 +7572,19 @@
         <v>4001</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9724</v>
+        <v>9931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01372985881197882</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003542184155814388</v>
+        <v>0.003523763304673201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03336781821133082</v>
+        <v>0.03407830973007136</v>
       </c>
     </row>
     <row r="14">
@@ -7601,7 +7601,7 @@
         <v>130043</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>125446</v>
+        <v>125343</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>131887</v>
@@ -7610,7 +7610,7 @@
         <v>0.9860192868600114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9511618764991875</v>
+        <v>0.9503813795752033</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -7622,19 +7622,19 @@
         <v>153235</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>146476</v>
+        <v>145847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>156588</v>
+        <v>157113</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9605152675749064</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9181483035960168</v>
+        <v>0.9142037053220373</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9815335243337634</v>
+        <v>0.9848241700377605</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>267</v>
@@ -7643,19 +7643,19 @@
         <v>283278</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>276126</v>
+        <v>275982</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>287549</v>
+        <v>287403</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9720575301499973</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9475174932536672</v>
+        <v>0.9470223204718953</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.986714952302806</v>
+        <v>0.986211921037895</v>
       </c>
     </row>
     <row r="15">
@@ -7747,19 +7747,19 @@
         <v>2920</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7869</v>
+        <v>7895</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01929789615682758</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006270837181005007</v>
+        <v>0.006283748807781833</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05200371136765803</v>
+        <v>0.05217340077301339</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5860</v>
+        <v>6096</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04476104347989144</v>
@@ -7780,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1359005772917606</v>
+        <v>0.1413607190201916</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -7789,19 +7789,19 @@
         <v>4850</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1921</v>
+        <v>1878</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10708</v>
+        <v>9842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02494480547302188</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009878194405918563</v>
+        <v>0.009657490076822338</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05507141846409596</v>
+        <v>0.05061649425426656</v>
       </c>
     </row>
     <row r="17">
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5131</v>
+        <v>5753</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007481378488229143</v>
@@ -7830,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03390596815865218</v>
+        <v>0.03801747741301689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -7842,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4378</v>
+        <v>6104</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02320234858171438</v>
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1015226843520516</v>
+        <v>0.1415540845728813</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6645</v>
+        <v>6924</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01096778538656664</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.034172430611404</v>
+        <v>0.03560931983746799</v>
       </c>
     </row>
     <row r="18">
@@ -7936,19 +7936,19 @@
         <v>3133</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8546</v>
+        <v>8293</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02070417990714299</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006125530113683979</v>
+        <v>0.006079312920648715</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05647642644198883</v>
+        <v>0.05480432665818229</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -7973,16 +7973,16 @@
         <v>918</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8490</v>
+        <v>9098</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01611265691438591</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004723686775907221</v>
+        <v>0.004722372339307362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04366158393930986</v>
+        <v>0.04678827762790749</v>
       </c>
     </row>
     <row r="20">
@@ -7999,19 +7999,19 @@
         <v>144138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137247</v>
+        <v>136624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148228</v>
+        <v>148274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9525165454478003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9069793218737497</v>
+        <v>0.9028626720246135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9795500231677224</v>
+        <v>0.9798483386736775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -8020,19 +8020,19 @@
         <v>40190</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35632</v>
+        <v>35199</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42187</v>
+        <v>42186</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9320366079383942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8263178879847083</v>
+        <v>0.8162752402681349</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9783333692626641</v>
+        <v>0.978306686396909</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>175</v>
@@ -8041,19 +8041,19 @@
         <v>184328</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>176680</v>
+        <v>176821</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>189027</v>
+        <v>189601</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9479747522260256</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9086434631956889</v>
+        <v>0.9093671665552761</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9721406624614296</v>
+        <v>0.9750922949476709</v>
       </c>
     </row>
     <row r="21">
@@ -8145,19 +8145,19 @@
         <v>7217</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2877</v>
+        <v>2943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14674</v>
+        <v>14699</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02162194509129774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008620329858994103</v>
+        <v>0.008816966912694889</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04396612694273285</v>
+        <v>0.04404112443564553</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -8166,19 +8166,19 @@
         <v>3999</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9201</v>
+        <v>9009</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0167473286331801</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004321431225881918</v>
+        <v>0.004236158825650344</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03853224006899401</v>
+        <v>0.03773045411146686</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>11</v>
@@ -8187,19 +8187,19 @@
         <v>11216</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6373</v>
+        <v>5484</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20094</v>
+        <v>19258</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.019588963740725</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01113125087568353</v>
+        <v>0.009577531565729779</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03509594649735399</v>
+        <v>0.03363514044748177</v>
       </c>
     </row>
     <row r="23">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6328</v>
+        <v>5617</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003342671326370877</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.018958635324327</v>
+        <v>0.0168286022857161</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5140</v>
+        <v>5433</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.004542874817449257</v>
@@ -8249,7 +8249,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02152554406896463</v>
+        <v>0.0227548181095148</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7723</v>
+        <v>6811</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003843221746125719</v>
@@ -8270,7 +8270,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01348835304143819</v>
+        <v>0.01189567974987801</v>
       </c>
     </row>
     <row r="24">
@@ -8287,19 +8287,19 @@
         <v>4191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10557</v>
+        <v>10340</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01255728114255767</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003182389966522352</v>
+        <v>0.003148620567736213</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03163049681977833</v>
+        <v>0.03097948954294551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -8321,19 +8321,19 @@
         <v>4191</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9505</v>
+        <v>10473</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007320208934711273</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001835731851991137</v>
+        <v>0.001832992306252664</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01660074590654597</v>
+        <v>0.01829158003593248</v>
       </c>
     </row>
     <row r="25">
@@ -8350,19 +8350,19 @@
         <v>3090</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8818</v>
+        <v>8313</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00925816685025971</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.002652425305050411</v>
+        <v>0.002658040952238465</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02641874254726601</v>
+        <v>0.02490825583229249</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -8371,19 +8371,19 @@
         <v>2762</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8140</v>
+        <v>7738</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01156702289917898</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003707964911398498</v>
+        <v>0.003670340478162868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0340893380243763</v>
+        <v>0.03240782124573734</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>6</v>
@@ -8392,19 +8392,19 @@
         <v>5852</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2065</v>
+        <v>2729</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>12471</v>
+        <v>12635</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01022108594942151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.003606370016501173</v>
+        <v>0.004766392958113926</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02178074400488993</v>
+        <v>0.02206754225522851</v>
       </c>
     </row>
     <row r="26">
@@ -8421,19 +8421,19 @@
         <v>318150</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>308517</v>
+        <v>309605</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>324375</v>
+        <v>324893</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.953219935589514</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9243575472763964</v>
+        <v>0.9276174457912187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9718684056108974</v>
+        <v>0.9734218705233116</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>230</v>
@@ -8442,19 +8442,19 @@
         <v>230938</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>224165</v>
+        <v>223320</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>235028</v>
+        <v>235632</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9671427736501916</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9387769638017127</v>
+        <v>0.9352376339083436</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9842702160374445</v>
+        <v>0.9867997107634251</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>529</v>
@@ -8463,19 +8463,19 @@
         <v>549089</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>537168</v>
+        <v>538689</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>556658</v>
+        <v>557241</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9590265196290165</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9382055032493776</v>
+        <v>0.9408619558562923</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9722465821490028</v>
+        <v>0.9732651589842316</v>
       </c>
     </row>
     <row r="27">
@@ -8567,19 +8567,19 @@
         <v>3547</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>8887</v>
+        <v>8967</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02728844883080983</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.006723170793987267</v>
+        <v>0.006734337853580049</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.068368272286433</v>
+        <v>0.06898796729171547</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -8588,19 +8588,19 @@
         <v>3800</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>936</v>
+        <v>1088</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>8712</v>
+        <v>9495</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.0371584716451776</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009157479858282382</v>
+        <v>0.01063582283551162</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08518652212809152</v>
+        <v>0.09284664110132999</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8</v>
@@ -8609,19 +8609,19 @@
         <v>7347</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2972</v>
+        <v>3508</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>13633</v>
+        <v>13569</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03163452970981188</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01279657989970844</v>
+        <v>0.01510499917495996</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05869984418500402</v>
+        <v>0.05842467644665958</v>
       </c>
     </row>
     <row r="29">
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5802</v>
+        <v>5246</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.008119450312530807</v>
@@ -8650,7 +8650,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04463529704168134</v>
+        <v>0.04036112041980881</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6060</v>
+        <v>6044</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.004544201459009513</v>
@@ -8684,7 +8684,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02609478940120416</v>
+        <v>0.02602526325924837</v>
       </c>
     </row>
     <row r="30">
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5889</v>
+        <v>5349</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.008051669981424881</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04530912295557719</v>
+        <v>0.04115366033911311</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>5169</v>
+        <v>5747</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.004506266935409024</v>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.02225496276091015</v>
+        <v>0.02474555997549143</v>
       </c>
     </row>
     <row r="31">
@@ -8764,19 +8764,19 @@
         <v>3585</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1053</v>
+        <v>1035</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9793</v>
+        <v>9456</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02758002080146084</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.008099375261003397</v>
+        <v>0.007959221175844132</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07534558254871666</v>
+        <v>0.07275260466860271</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>3</v>
@@ -8785,19 +8785,19 @@
         <v>3445</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9947</v>
+        <v>10307</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.03368680315840298</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.009076543603332935</v>
+        <v>0.009052668313720718</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09726116228632353</v>
+        <v>0.1007841466364851</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>6</v>
@@ -8806,19 +8806,19 @@
         <v>7030</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2990</v>
+        <v>2420</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>15337</v>
+        <v>14547</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.03026902877367122</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01287505896021591</v>
+        <v>0.01041923707294267</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0660394304963491</v>
+        <v>0.06263726880787658</v>
       </c>
     </row>
     <row r="32">
@@ -8835,19 +8835,19 @@
         <v>120747</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>112202</v>
+        <v>113413</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>125409</v>
+        <v>125564</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.9289604100737736</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8632175122610675</v>
+        <v>0.8725323683296039</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9648222302022891</v>
+        <v>0.9660165039523019</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>93</v>
@@ -8856,19 +8856,19 @@
         <v>95021</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>88473</v>
+        <v>87389</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>99224</v>
+        <v>98919</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.9291547251964194</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.8651218396291963</v>
+        <v>0.8545276880259778</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.970257693918642</v>
+        <v>0.9672706918226833</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>206</v>
@@ -8877,19 +8877,19 @@
         <v>215768</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>206651</v>
+        <v>205369</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>222778</v>
+        <v>222124</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.9290459731220984</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.8897876980976592</v>
+        <v>0.8842690196341957</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.9592299997366841</v>
+        <v>0.9564111833914186</v>
       </c>
     </row>
     <row r="33">
@@ -8994,19 +8994,19 @@
         <v>6941</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2976</v>
+        <v>3022</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13484</v>
+        <v>14495</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06477561940515875</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02777413014102809</v>
+        <v>0.02820476567354708</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1258299713514177</v>
+        <v>0.1352609919456157</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>7</v>
@@ -9015,19 +9015,19 @@
         <v>6941</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3092</v>
+        <v>2929</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14917</v>
+        <v>13624</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05287132764300783</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02355041630293171</v>
+        <v>0.02230619533276304</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.113616476532586</v>
+        <v>0.1037722577164644</v>
       </c>
     </row>
     <row r="35">
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5394</v>
+        <v>5179</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04374062558019474</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2235570542776756</v>
+        <v>0.2146411905646037</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -9128,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5189</v>
+        <v>4293</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.008038536312694388</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.03952093266860318</v>
+        <v>0.03270097401121019</v>
       </c>
     </row>
     <row r="37">
@@ -9157,7 +9157,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5101</v>
+        <v>4744</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0453701131325918</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2114250474414221</v>
+        <v>0.1966274043536106</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>5181</v>
+        <v>5727</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.009189300439639753</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04834506650825864</v>
+        <v>0.05343861543529929</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>2</v>
@@ -9199,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6389</v>
+        <v>7325</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01583851436370348</v>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04866159395839401</v>
+        <v>0.05579496435197771</v>
       </c>
     </row>
     <row r="38">
@@ -9225,7 +9225,7 @@
         <v>21978</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>17008</v>
+        <v>17944</v>
       </c>
       <c r="F38" s="5" t="n">
         <v>24128</v>
@@ -9234,7 +9234,7 @@
         <v>0.9108892612872135</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7049007789958046</v>
+        <v>0.7437192413754978</v>
       </c>
       <c r="I38" s="6" t="n">
         <v>1</v>
@@ -9246,19 +9246,19 @@
         <v>99236</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>92575</v>
+        <v>91516</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>103301</v>
+        <v>103183</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.9260350801552015</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.8638825367737762</v>
+        <v>0.8539989202533224</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.9639683579001697</v>
+        <v>0.9628653736231106</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>115</v>
@@ -9267,19 +9267,19 @@
         <v>121214</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>113449</v>
+        <v>113528</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>125583</v>
+        <v>125741</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.9232516216805943</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.8641071039039206</v>
+        <v>0.8647109117343484</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.9565293997861792</v>
+        <v>0.9577319817111534</v>
       </c>
     </row>
     <row r="39">
@@ -9371,19 +9371,19 @@
         <v>14703</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>8809</v>
+        <v>8259</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>23908</v>
+        <v>23494</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01610998530966282</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.009651671783854327</v>
+        <v>0.009049615384188915</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02619616054052522</v>
+        <v>0.02574308682271492</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>20</v>
@@ -9392,19 +9392,19 @@
         <v>19795</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>11928</v>
+        <v>12813</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>29655</v>
+        <v>30726</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02515624937955322</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01515805298810628</v>
+        <v>0.01628344937651308</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03768635083942713</v>
+        <v>0.03904759656414795</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>35</v>
@@ -9413,19 +9413,19 @@
         <v>34498</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>24190</v>
+        <v>23729</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>48033</v>
+        <v>47365</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02029844170659754</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01423354920875438</v>
+        <v>0.0139622157094496</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02826241208688918</v>
+        <v>0.02786926204711266</v>
       </c>
     </row>
     <row r="41">
@@ -9442,19 +9442,19 @@
         <v>3303</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9678</v>
+        <v>8972</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003619315139495617</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001153294024258611</v>
+        <v>0.001149645653513684</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01060462443979424</v>
+        <v>0.009830824605465211</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -9463,19 +9463,19 @@
         <v>3138</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8337</v>
+        <v>9459</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.003987650854177806</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001266551994357922</v>
+        <v>0.001268079357581512</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01059439000437455</v>
+        <v>0.01202109509745121</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>6</v>
@@ -9484,19 +9484,19 @@
         <v>6441</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2198</v>
+        <v>2192</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>13843</v>
+        <v>13824</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.003789856046599474</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.001293567043177726</v>
+        <v>0.001289697545284829</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.008144883958419905</v>
+        <v>0.008133817776560989</v>
       </c>
     </row>
     <row r="42">
@@ -9513,19 +9513,19 @@
         <v>8264</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3972</v>
+        <v>4077</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>15578</v>
+        <v>16184</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009055321340740063</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.004352300429530203</v>
+        <v>0.004467280089707247</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.01706918278983249</v>
+        <v>0.0177328562145919</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -9547,19 +9547,19 @@
         <v>8264</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>3243</v>
+        <v>4032</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>16670</v>
+        <v>15599</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.00486267139122541</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.001908200045245732</v>
+        <v>0.002372148475787501</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009808606386624317</v>
+        <v>0.009178479176597457</v>
       </c>
     </row>
     <row r="43">
@@ -9576,19 +9576,19 @@
         <v>15730</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>8425</v>
+        <v>8048</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>25476</v>
+        <v>25374</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.0172356234434383</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009230912647072128</v>
+        <v>0.008818313981584915</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02791503233634643</v>
+        <v>0.02780231969541485</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>13</v>
@@ -9597,19 +9597,19 @@
         <v>13514</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>7137</v>
+        <v>7727</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>22639</v>
+        <v>22542</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01717446370788795</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.009070141816198932</v>
+        <v>0.009819498971813711</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0287697474215855</v>
+        <v>0.0286464754276866</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>27</v>
@@ -9618,19 +9618,19 @@
         <v>29244</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>20318</v>
+        <v>18693</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>42373</v>
+        <v>41662</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01720730624159435</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01195531933784305</v>
+        <v>0.01099908798889546</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0249320431884419</v>
+        <v>0.02451378753390188</v>
       </c>
     </row>
     <row r="44">
@@ -9647,19 +9647,19 @@
         <v>870643</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>856941</v>
+        <v>856629</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>882533</v>
+        <v>883023</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.9539797547666632</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.9389660180515734</v>
+        <v>0.9386248074817453</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.9670079353015011</v>
+        <v>0.9675444013344136</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>734</v>
@@ -9668,19 +9668,19 @@
         <v>750443</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>736733</v>
+        <v>736975</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>761214</v>
+        <v>760424</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.9536816360583811</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.9362576075810168</v>
+        <v>0.9365659979688574</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.9673693215472683</v>
+        <v>0.9663651701164341</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1544</v>
@@ -9689,19 +9689,19 @@
         <v>1621086</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1601068</v>
+        <v>1602169</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1636916</v>
+        <v>1636197</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.9538417246139832</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.9420631465414843</v>
+        <v>0.9427106282717168</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.9631560221679952</v>
+        <v>0.9627327629818079</v>
       </c>
     </row>
     <row r="45">
